--- a/train_tools/qna/train_data.xlsx
+++ b/train_tools/qna/train_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kei/PycharmProjects/first_chatbot/train_tools/qna/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eogus\Chatbot_Project\train_tools\qna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A853BDA-43A5-AE4C-916E-BDA6CC036CF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AC5F44-7725-494D-9DAC-B3A41DDA78A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="-8880" windowWidth="21600" windowHeight="20940" xr2:uid="{91B3E3B2-3B68-0C4C-B8EF-7A84BAE2F665}"/>
+    <workbookView xWindow="2720" yWindow="30" windowWidth="14400" windowHeight="7360" xr2:uid="{91B3E3B2-3B68-0C4C-B8EF-7A84BAE2F665}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,16 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="85">
   <si>
     <t>개체명(NER)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>질문(Query)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>의도(Intent)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,49 +55,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>안녕하세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네 안녕하세요 :D
-반갑습니다. 저는 챗봇입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반가워요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B_FOOD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{B_FOOD} 주문 처리 완료되었습니다. 
-주문해주셔서 감사합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{B_FOOD} 주문할게요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B_DT,B_TI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{B_DT} 예약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{B_DT}에 예약 접수 되었습니다.</t>
+    <t>음식점추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식추천</t>
+  </si>
+  <si>
+    <t>음식추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죄송해요… 무슨 말씀이신지 모르겠어요…!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식(Food)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_FOOD</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%ED%95%84%EB%8F%99%EB%B6%80%EB%8C%80%EC%B0%8C%EA%B0%9C/place/38486511?c=14135222.5565501,4517476.1447966,13,0,0,0,dh&amp;placePath=%3F%2526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집 검색, 가든쿡 어때요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EA%B0%80%EB%93%A0%EC%BF%A1/place/499812054?c=14136643.8075448,4517292.2181973,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>김치찌개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집 검색, 소담집 어때요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집 검색, 보나베띠 어때요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집 검색, 몬테피자 어때요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼겹살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집 검색, 대청마루 어때요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집 검색, 돼야지 어때요??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요~~ 반가워용!! ㅎㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요~~ 만나서 반갑습니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요! 오늘도 맛있는 곳 추천해드릴게요! ㅎㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요!! 동국대 맛집 봇 인사드려요~! ㅎㅎ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -109,15 +144,231 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>욕하면 나빠요 ㅠ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{B_FOOD} 주문 처리 감사!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.imgur.com/UluUFMp.jpg</t>
+    <t>욕하시면 안되요…ㅠㅠ 저 그럼 슬퍼져요…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>욕은 나빠요!! 예쁘고 좋은 말만 사용합니다!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>욕하면 안됩니다!! 욕을 듣는 제 마음은 생각해 보셨나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국의 자랑!! 오늘은 한식 어때요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌈에 부드러운 고기와 김치를 싸먹으면 크…. 오늘은 보쌈어때요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고의 가성비 음식! 보쌈정식 어때요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고추장 양념에 닭한마리를 넣어서 보글보글 끓여먹는 닭볶음탕 어때요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고추장 양념에 닭한마리를 넣어서 보글보글 끓여먹는 닭도리탕 어때요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갖가지 채소에 고기와 밥을 넣어서 한쌈 크게 싸서 먹는 쌈밥 어때요?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘따라 제육볶음을 추천해드리고 싶네요 ㅎㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘따라 오리주물럭이 땡기는데요? ㅎㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국인이면 된장찌개죠!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국인이라면 김치찌개죠!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해장하시고 싶으시면 북어국이 최고에요!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈치조림 어때요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루 종일 든든~한 순대국 추천드려요~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제대로 먹으려면 부대찌개에 밥 한공기 뚝딱해야죠!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식메뉴가 너무 고민되면 그냥 밴반으로 갑시다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숯불에 구워 더 맛있는 숯불갈비 어때요? ㅎㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉면 어때요? 물냉? 비냉? 취향것 드세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 오늘따라 칼국수가 땡깁니다…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수제비국으로 든든하게 배 채웁시다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진~한 사골육수에 만두넣고 끓인 만두국 추천드려요~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔칫날엔 잔치국수죠!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매콤한 양념에 비벼먹는 비빔국수 추천합니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우아~하게 양식으로 갑시다~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양식의 대표주자 파스타 어때요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양식의 대표주자 스파게티 어때요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구들과 나눠먹고싶을땐 피자가 최고죠!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생소하지만 간단하게 먹기에는 최고의 음식! 치아바타 어때요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘따라 스테이크를 썰고 싶군요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철판과 공기에 밥을 볶으면 그렇게 맛있대요! 철판볶음밥 추천드려요! ㅎㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고민될 땐 중식 아닙니까~?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양꼬치 어때요? 양고기의 특유의 향에 빠져버려요…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중식 대표는 짜장면, 짬뽕이죠! 둘 중엔 알아서 고르시길…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 특별하게 탕수육말고 깐풍기 어때요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘따라 볶음밥이 땡기네요… 짬뽕국물 추가는 필수!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘 마라탕이 그렇게 대세라면서요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>든든하게 닭요리 어떠세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동국대하면 닭한마리가 유명하죠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜닭에 밥한공기 뚝딱어때요? ㅎㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭갈비 너무 먹고싶어요 대신 먹어주세요!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭘 고민해요 메뉴 못정할땐 역시 치킨이 최고죠!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기를 먹어야지 힘이나요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지고기 구워서 먹는거 어때요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>막창….막창 먹어주세요 막창….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구워먹고싶으시면 무조건 삼겹살 아닌가요??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동국대사람들이 함박스테이크 그렇게 좋아한다던데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일식 어때요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후배 사줄거면 초밥이 최고에요~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 무난~하게 돈까스 갑시다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가츠동 모르시죠? 먹어보면 알게될겁니다 ㅎㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>규동 모르시죠? 먹어보면 알게될겁니다 ㅎㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜨~끈한 고기육수에 면을 넣어먹는 일식대표 라멘 어떠세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간단하게 분식 어때요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜨끈~한 국물에 두꺼운 우동말아 먹읍시다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매운거 땡기시면 떡볶이 추천드려요~~ㅎㅎ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,7 +376,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -531,121 +782,679 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B4CC4D-BBB6-C948-A332-3C0CB96286D0}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="1" max="2" width="18.3046875" customWidth="1"/>
+    <col min="3" max="3" width="23.3828125" customWidth="1"/>
+    <col min="4" max="4" width="24.15234375" customWidth="1"/>
+    <col min="5" max="5" width="21.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="38">
-      <c r="A2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="38">
-      <c r="A3" t="s">
+      <c r="D65" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="57">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="19">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="38">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E69" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="19">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{0E9BA614-0B84-764C-9F33-CC800C3C4E3B}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{F3941D0C-1C04-7A44-906E-8CC02273961F}"/>
+    <hyperlink ref="E64" r:id="rId1" xr:uid="{97ECB475-FF18-4E1C-9AFA-DFC6B5E16520}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/train_tools/qna/train_data.xlsx
+++ b/train_tools/qna/train_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eogus\Chatbot_Project\train_tools\qna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AC5F44-7725-494D-9DAC-B3A41DDA78A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A86DB2-BCAB-4D39-9B6B-1228A561253B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="30" windowWidth="14400" windowHeight="7360" xr2:uid="{91B3E3B2-3B68-0C4C-B8EF-7A84BAE2F665}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{91B3E3B2-3B68-0C4C-B8EF-7A84BAE2F665}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="256">
   <si>
     <t>개체명(NER)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,295 +81,831 @@
     <t>B_FOOD</t>
   </si>
   <si>
+    <t>피자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EA%B0%80%EB%93%A0%EC%BF%A1/place/499812054?c=14136643.8075448,4517292.2181973,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>김치찌개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요~~ 반가워용!! ㅎㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요~~ 만나서 반갑습니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요! 오늘도 맛있는 곳 추천해드릴게요! ㅎㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요!! 동국대 맛집 봇 인사드려요~! ㅎㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>욕설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>욕하시면 안되요…ㅠㅠ 저 그럼 슬퍼져요…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>욕은 나빠요!! 예쁘고 좋은 말만 사용합니다!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>욕하면 안됩니다!! 욕을 듣는 제 마음은 생각해 보셨나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘따라 제육볶음을 추천해드리고 싶네요 ㅎㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘따라 오리주물럭이 땡기는데요? ㅎㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국인이면 된장찌개죠!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국인이라면 김치찌개죠!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해장하시고 싶으시면 북어국이 최고에요!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루 종일 든든~한 순대국 추천드려요~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제대로 먹으려면 부대찌개에 밥 한공기 뚝딱해야죠!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식메뉴가 너무 고민되면 그냥 밴반으로 갑시다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 오늘따라 칼국수가 땡깁니다…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수제비국으로 든든하게 배 채웁시다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진~한 사골육수에 만두넣고 끓인 만두국 추천드려요~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔칫날엔 잔치국수죠!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매콤한 양념에 비벼먹는 비빔국수 추천합니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우아~하게 양식으로 갑시다~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구들과 나눠먹고싶을땐 피자가 최고죠!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘따라 스테이크를 썰고 싶군요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철판과 공기에 밥을 볶으면 그렇게 맛있대요! 철판볶음밥 추천드려요! ㅎㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고민될 땐 중식 아닙니까~?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중식 대표는 짜장면, 짬뽕이죠! 둘 중엔 알아서 고르시길…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘따라 볶음밥이 땡기네요… 짬뽕국물 추가는 필수!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘 마라탕이 그렇게 대세라면서요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>든든하게 닭요리 어떠세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동국대하면 닭한마리가 유명하죠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭갈비 너무 먹고싶어요 대신 먹어주세요!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭘 고민해요 메뉴 못정할땐 역시 치킨이 최고죠!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기를 먹어야지 힘이나요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>막창….막창 먹어주세요 막창….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구워먹고싶으시면 무조건 삼겹살 아닌가요??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동국대사람들이 함박스테이크 그렇게 좋아한다던데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후배 사줄거면 초밥이 최고에요~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 무난~하게 돈까스 갑시다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜨~끈한 고기육수에 면을 넣어먹는 일식대표 라멘 어떠세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜨끈~한 국물에 두꺼운 우동말아 먹읍시다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매운거 땡기시면 떡볶이 추천드려요~~ㅎㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://search.pstatic.net/common/?src=http%3A%2F%2Fblogfiles.naver.net%2F20150318_24%2Fs980212_142661859140558Yh9_JPEG%2FIMG_3174.JPG&amp;type=sc960_832</t>
+  </si>
+  <si>
+    <t>한식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가츠동 모르시죠? 엄청 맛있어요 ㅎㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>규동 모르시죠? 엄청 맛있어요 ㅎㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보쌈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보쌈정식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국의 자랑!! 오늘은 한식 어떠세요?</t>
+  </si>
+  <si>
+    <t>쌈에 부드러운 고기와 김치를 싸먹으면 크…. 오늘은 보쌈어떠세요?</t>
+  </si>
+  <si>
+    <t>최고의 가성비 음식! 보쌈정식 어떠세요?</t>
+  </si>
+  <si>
+    <t>고추장 양념에 닭한마리를 넣어서 보글보글 끓여먹는 닭볶음탕 어떠세요?</t>
+  </si>
+  <si>
+    <t>고추장 양념에 닭한마리를 넣어서 보글보글 끓여먹는 닭도리탕 어떠세요?</t>
+  </si>
+  <si>
+    <t>갖가지 채소에 고기와 밥을 넣어서 한쌈 크게 싸서 먹는 쌈밥 어떠세요?!</t>
+  </si>
+  <si>
+    <t>갈치조림 어떠세요?</t>
+  </si>
+  <si>
+    <t>숯불에 구워 더 맛있는 숯불갈비 어떠세요? ㅎㅎ</t>
+  </si>
+  <si>
+    <t>냉면 어떠세요? 물냉? 비냉? 취향것 드세요!</t>
+  </si>
+  <si>
+    <t>양식의 대표주자 파스타 어떠세요?</t>
+  </si>
+  <si>
+    <t>양식의 대표주자 스파게티 어떠세요?</t>
+  </si>
+  <si>
+    <t>생소하지만 간단하게 먹기에는 최고의 음식! 치아바타 어떠세요?</t>
+  </si>
+  <si>
+    <t>양꼬치 어떠세요? 양고기의 특유의 향에 빠져버려요…</t>
+  </si>
+  <si>
+    <t>오늘은 특별하게 탕수육말고 깐풍기 어떠세요?</t>
+  </si>
+  <si>
+    <t>찜닭에 밥한공기 뚝딱어떠세요? ㅎㅎ</t>
+  </si>
+  <si>
+    <t>돼지고기 구워서 먹는거 어떠세요?</t>
+  </si>
+  <si>
+    <t>일식 어떠세요?</t>
+  </si>
+  <si>
+    <t>간단하게 분식 어떠세요?</t>
+  </si>
+  <si>
+    <t>닭볶음탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭도리탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌈밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육볶음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리주물럭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>된장찌개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북어국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈치조림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈비탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순대국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부대찌개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백반</t>
+  </si>
+  <si>
+    <t>숯불갈비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈비</t>
+  </si>
+  <si>
+    <t>냉면</t>
+  </si>
+  <si>
+    <t>칼국수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수제비</t>
+  </si>
+  <si>
+    <t>만두국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔치국수</t>
+  </si>
+  <si>
+    <t>비빔국수</t>
+  </si>
+  <si>
+    <t>양식</t>
+  </si>
+  <si>
+    <t>파스타</t>
+  </si>
+  <si>
+    <t>스파게티</t>
+  </si>
+  <si>
+    <t>치아바타</t>
+  </si>
+  <si>
+    <t>스테이크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철판볶음밥</t>
+  </si>
+  <si>
+    <t>중식</t>
+  </si>
+  <si>
+    <t>중식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양꼬치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짜장면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짬뽕</t>
+  </si>
+  <si>
+    <t>짬뽕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탕수육</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깐풍기</t>
+  </si>
+  <si>
+    <t>볶음밥</t>
+  </si>
+  <si>
+    <t>볶음밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마라탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭요리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭한마리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜닭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭갈비</t>
+  </si>
+  <si>
+    <t>치킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈매기살</t>
+  </si>
+  <si>
+    <t>막창</t>
+  </si>
+  <si>
+    <t>삽겹살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함박스테이크</t>
+  </si>
+  <si>
+    <t>일식</t>
+  </si>
+  <si>
+    <t>일식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈까스</t>
+  </si>
+  <si>
+    <t>가츠동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>규동</t>
+  </si>
+  <si>
+    <t>라멘</t>
+  </si>
+  <si>
+    <t>에비동</t>
+  </si>
+  <si>
+    <t>사케동</t>
+  </si>
+  <si>
+    <t>분식</t>
+  </si>
+  <si>
+    <t>우동</t>
+  </si>
+  <si>
+    <t>떡볶이</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%ED%99%8D%ED%83%81/place/11710924?c=14136252.0677748,4517734.1197670,15,0,0,0,dh&amp;placePath=%3Fentry%253Dpll%2526</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%ED%99%8D%ED%83%81/place/11710924?c=14136252.0677748,4517734.1197670,15,0,0,0,dh&amp;placePath=%3Fentry%253Dpll%2526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EB%82%A8%EC%82%B0%EA%B3%A8/place/1087322255?c=14136507.6540881,4517564.5251105,15,0,0,0,dh</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EB%A7%B9%EC%82%B0%EC%8B%9D%EB%8B%B9/place/13154985?c=14137181.2553999,4517703.0672243,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EA%B9%80%EC%B9%98%EB%A7%8C%EC%84%A0%EC%83%9D%EB%8F%99%EB%8C%80%ED%95%84%EB%8F%99%EC%A0%90/place/37676634?c=14136648.5848590,4517392.5417969,15,0,0,0,dh</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%ED%98%B8%EB%B0%98%EC%A0%95/place/18048164?c=14136677.2487446,4517870.2732237,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%ED%98%B8%EB%B0%98%EC%A0%95/place/18048164?c=14136677.2487446,4517870.2732237,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EC%A7%84%EB%95%A1%EC%9D%B4%EC%88%9C%EB%8C%80%EA%B5%AD/place/34067473?c=14136247.2904605,4517569.3024248,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EC%A7%84%EB%95%A1%EC%9D%B4%EC%88%9C%EB%8C%80%EA%B5%AD/place/34067473?c=14136247.2904605,4517569.3024248,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://map.naver.com/v5/search/%ED%95%84%EB%8F%99%EB%B6%80%EB%8C%80%EC%B0%8C%EA%B0%9C/place/38486511?c=14135222.5565501,4517476.1447966,13,0,0,0,dh&amp;placePath=%3F%2526</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집 검색, 가든쿡 어때요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://map.naver.com/v5/search/%EA%B0%80%EB%93%A0%EC%BF%A1/place/499812054?c=14136643.8075448,4517292.2181973,15,0,0,0,dh&amp;placePath=%3F%2526</t>
-  </si>
-  <si>
-    <t>김치찌개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집 검색, 소담집 어때요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집 검색, 보나베띠 어때요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집 검색, 몬테피자 어때요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼겹살</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집 검색, 대청마루 어때요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집 검색, 돼야지 어때요??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕하세요~~ 반가워용!! ㅎㅎ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕하세요~~ 만나서 반갑습니다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕하세요! 오늘도 맛있는 곳 추천해드릴게요! ㅎㅎ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕하세요!! 동국대 맛집 봇 인사드려요~! ㅎㅎ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>욕설</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>욕하시면 안되요…ㅠㅠ 저 그럼 슬퍼져요…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>욕은 나빠요!! 예쁘고 좋은 말만 사용합니다!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>욕하면 안됩니다!! 욕을 듣는 제 마음은 생각해 보셨나요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국의 자랑!! 오늘은 한식 어때요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쌈에 부드러운 고기와 김치를 싸먹으면 크…. 오늘은 보쌈어때요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최고의 가성비 음식! 보쌈정식 어때요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고추장 양념에 닭한마리를 넣어서 보글보글 끓여먹는 닭볶음탕 어때요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고추장 양념에 닭한마리를 넣어서 보글보글 끓여먹는 닭도리탕 어때요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>갖가지 채소에 고기와 밥을 넣어서 한쌈 크게 싸서 먹는 쌈밥 어때요?!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘따라 제육볶음을 추천해드리고 싶네요 ㅎㅎ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘따라 오리주물럭이 땡기는데요? ㅎㅎ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국인이면 된장찌개죠!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국인이라면 김치찌개죠!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해장하시고 싶으시면 북어국이 최고에요!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>갈치조림 어때요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하루 종일 든든~한 순대국 추천드려요~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제대로 먹으려면 부대찌개에 밥 한공기 뚝딱해야죠!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음식메뉴가 너무 고민되면 그냥 밴반으로 갑시다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숯불에 구워 더 맛있는 숯불갈비 어때요? ㅎㅎ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>냉면 어때요? 물냉? 비냉? 취향것 드세요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저는 오늘따라 칼국수가 땡깁니다…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수제비국으로 든든하게 배 채웁시다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진~한 사골육수에 만두넣고 끓인 만두국 추천드려요~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔칫날엔 잔치국수죠!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매콤한 양념에 비벼먹는 비빔국수 추천합니다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우아~하게 양식으로 갑시다~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양식의 대표주자 파스타 어때요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양식의 대표주자 스파게티 어때요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>친구들과 나눠먹고싶을땐 피자가 최고죠!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생소하지만 간단하게 먹기에는 최고의 음식! 치아바타 어때요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘따라 스테이크를 썰고 싶군요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철판과 공기에 밥을 볶으면 그렇게 맛있대요! 철판볶음밥 추천드려요! ㅎㅎ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고민될 땐 중식 아닙니까~?!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양꼬치 어때요? 양고기의 특유의 향에 빠져버려요…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중식 대표는 짜장면, 짬뽕이죠! 둘 중엔 알아서 고르시길…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘은 특별하게 탕수육말고 깐풍기 어때요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘따라 볶음밥이 땡기네요… 짬뽕국물 추가는 필수!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요즘 마라탕이 그렇게 대세라면서요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>든든하게 닭요리 어떠세요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동국대하면 닭한마리가 유명하죠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>찜닭에 밥한공기 뚝딱어때요? ㅎㅎ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닭갈비 너무 먹고싶어요 대신 먹어주세요!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭘 고민해요 메뉴 못정할땐 역시 치킨이 최고죠!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고기를 먹어야지 힘이나요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돼지고기 구워서 먹는거 어때요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>막창….막창 먹어주세요 막창….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구워먹고싶으시면 무조건 삼겹살 아닌가요??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동국대사람들이 함박스테이크 그렇게 좋아한다던데?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일식 어때요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후배 사줄거면 초밥이 최고에요~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘은 무난~하게 돈까스 갑시다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가츠동 모르시죠? 먹어보면 알게될겁니다 ㅎㅎ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>규동 모르시죠? 먹어보면 알게될겁니다 ㅎㅎ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뜨~끈한 고기육수에 면을 넣어먹는 일식대표 라멘 어떠세요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>간단하게 분식 어때요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뜨끈~한 국물에 두꺼운 우동말아 먹읍시다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매운거 땡기시면 떡볶이 추천드려요~~ㅎㅎ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EC%9D%BC%EB%AF%B8%EC%A0%95/place/18694488?c=14135193.8926645,4517607.5209390,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EC%9D%BC%EB%AF%B8%EC%A0%95/place/18694488?c=14135193.8926645,4517607.5209390,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%ED%92%8D%EB%85%84%EA%B0%80/place/12979381?c=14136228.1812035,4517588.4116819,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%ED%99%A9%ED%86%A0%EA%B3%A8/place/18044039?c=14136431.2170598,4517774.7269383,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%ED%95%84%EB%8F%99%EB%A9%B4%EC%98%A5/place/11678838?c=14136431.2170598,4517774.7269383,15,0,0,0,dh</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EA%B5%AD%EC%88%98%EA%B0%80/place/38498061?c=14136366.7233172,4517738.8970813,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%ED%95%84%EB%8F%99%EC%B9%BC%EA%B5%AD%EC%88%98/place/1512379155?c=14135946.3196617,4517652.9054245,15,0,0,0,dh</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EC%86%8C%EB%8B%B4%EC%A7%91/place/1678862487?c=14136345.2254030,4517695.9012529,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%ED%8C%8C%EC%8A%A4%ED%83%80%20%EB%A7%88%EC%BC%93/place/31608027?c=14136053.8092327,4517636.1848246,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%ED%8C%8C%EC%8A%A4%ED%83%80%20%EB%A7%88%EC%BC%93/place/31608027?c=14136053.8092327,4517636.1848246,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EC%B9%98%EC%95%84%EB%B0%94%ED%83%80%EB%AA%BD%EC%8A%A4/place/37017335?c=14136015.5907185,4517636.1848246,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EB%B3%B4%EB%82%98%EB%B2%A0%EB%9D%A0/place/33291605?c=14136015.5907185,4517636.1848246,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EB%8F%84%EB%AC%B8%EC%96%91%EA%BC%AC%EC%B9%98/place/1665518441?c=14136342.8367459,4517781.8929097,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EB%8F%99%ED%9A%8C%EB%A3%A8/place/19867591?c=14135967.8175759,4517683.9579672,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EB%8F%99%ED%9A%8C%EB%A3%A8/place/19867591?c=14135967.8175759,4517683.9579672,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EB%8F%84%EB%AC%B8%EC%96%91%EA%BC%AC%EC%B9%98/place/1665518441?c=14136342.8367459,4517781.8929097,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EC%82%AC%ED%95%B4%EB%A3%A8?c=14137759.3104263,4517743.6743956,15,0,0,0,dh</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EC%A7%AC%EB%BD%95%EC%95%BC/place/1415201441?c=14136328.5048031,4517688.7352815,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EC%A7%AC%EB%BD%95%EC%95%BC/place/1415201441?c=14136328.5048031,4517688.7352815,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EB%8F%99%EA%B5%AD%EB%B0%98%EC%A0%90/place/35271989?c=14137754.5331120,4517810.5567953,15,0,0,0,dh</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EB%9D%BC%ED%99%94%EB%B0%A9%EB%A7%88%EB%9D%BC%ED%83%95/place/1249013838?c=14136452.7149740,4517669.6260244,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%ED%95%84%EB%8F%99%EB%B0%98%EC%A0%90/place/18049901?placeSearchOption=fromNxList=true%26noredirect=1%26entry=pll&amp;c=14133378.5132427,4517791.4475383,13,0,0,0,dh&amp;placePath=%2Fhome%3Fentry=pll</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EC%A4%91%EA%B5%AC%20%EA%B0%95%EC%84%9C/place/18050981?placeSearchOption=fromNxList=true%26noredirect=1%26entry=pll&amp;c=14133579.1604419,4517934.7669663,13,0,0,0,dh&amp;placePath=%2Fhome%3Fentry=pll</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/entry/place/31148094?c=14137873.4666060,4518239.4543984,13,0,0,0,dh&amp;placePath=%2Fhome%3Fentry=plt</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EB%93%B1%EB%82%98%EB%AC%B4%20%EB%8B%AD%ED%95%9C%EB%A7%88%EB%A6%AC/place/18051039?c=14136452.7149740,4517669.6260244,15,0,0,0,dh</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EB%B0%B0%ED%84%B0%EC%A7%80%EB%8A%94%EC%A7%91/place/13482905?c=14136407.3304885,4517679.1806530,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EB%B0%B0%ED%84%B0%EC%A7%80%EB%8A%94%EC%A7%91/place/13482905?c=14136407.3304885,4517679.1806530,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EB%B4%89%EC%B6%94%EC%B0%9C%EB%8B%AD/place/34842587?c=14136407.3304885,4517679.1806530,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EB%82%B4%EA%B0%80%EC%B0%9C%ED%95%9C%EB%8B%AD/place/37803897?c=14136407.3304885,4517679.1806530,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EC%9C%A0%EA%B0%80%EB%84%A4%20%EB%8B%AD%EA%B0%88%EB%B9%84/place/1122011581?c=14135081.6257792,4517801.0021668,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/2.5%EB%8B%AD%EA%B0%88%EB%B9%84/place/37556077?c=14137288.7449709,4517824.8887381,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/2.5%EB%8B%AD%EA%B0%88%EB%B9%84/place/37556077?c=14137288.7449709,4517824.8887381,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%ED%94%BC%EB%82%98%EC%B9%98%EA%B3%B5/place/1155916502?c=14134630.1695809,4517691.1239386,14,0,0,0,dh</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EC%8D%AC%EB%8D%94%EC%B9%98%ED%82%A8/place/20862047?c=14135365.8759781,4517815.3341096,14,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%ED%95%84%EB%8F%99%20%EB%8B%AD%EC%B9%BC%EA%B5%AD%EC%88%98/place/31298596?c=14135222.5565501,4517476.1447966,13,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EC%86%90%EB%AC%B8/place/21070363?c=14136311.7842031,4517715.0105100,15,0,0,0,dh</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EB%8F%BC%EC%95%BC%EC%A7%80/place/18696689?c=14136287.8976318,4517672.0146816,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/entry/place/13154988?c=14136768.0177157,4517707.8445386,15,0,0,0,dh</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/entry/place/38425640?c=14136689.1920303,4517660.0713959,15,0,0,0,dh</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EC%B6%A9%EB%AC%B4%EB%A1%9C%EC%9D%B4%EB%8C%80%ED%97%8C%EC%8A%A4%EC%8B%9C/place/38276088?c=14136587.0769378,4518202.8937296,17,0,0,0,dh</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EC%B6%A9%EB%AC%B4%EB%A1%9C%EC%9D%B4%EB%8C%80%ED%97%8C%EC%8A%A4%EC%8B%9C/place/38276088?c=14136587.0769378,4518202.8937296,17,0,0,0,dh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/Mr.%EB%8F%88/place/38275430?c=14136746.5198015,4517664.8487102,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>https://store.naver.com/restaurants/detail?id=37797371</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EB%AA%A8%EB%A6%AC%EC%A7%B1/place/19715569?c=14136868.3413153,4517717.3991671,15,0,0,0,dh</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EC%82%B0%EC%AA%BC%EB%A7%A4/place/38667459?c=14136868.3413153,4517717.3991671,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EC%82%B0%EC%AA%BC%EB%A7%A4/place/38667459?c=14136868.3413153,4517717.3991671,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EC%82%B0%ED%83%80%EB%8F%88%EB%B6%80%EB%A6%AC/place/38555407?c=14136868.3413153,4517717.3991671,15,0,0,0,dh</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/entry/place/11761619?c=14136868.3413153,4517717.3991671,15,0,0,0,dh</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/search/%EB%8F%99%EB%8C%80%EB%AC%B8%EC%97%BD%EA%B8%B0%EB%96%A1%EB%B3%B6%EC%9D%B4/place/37489777?c=14136058.5865469,4517762.7836527,15,0,0,0,dh&amp;placePath=%3F%2526</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/entry/place/38276255?c=14137701.9826551,4517758.0063384,15,0,0,0,dh</t>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/entry/place/38276255?c=14137701.9826551,4517758.0063384,15,0,0,0,dh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://map.naver.com/v5/entry/place/37804109?c=14136662.9168018,4517729.3424528,15,0,0,0,dh</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 홍탁 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 홍탁 어떠세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 남산골 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 맹산식당 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 진땡이순대국 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 필동부대찌개 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 일미정 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 김치만선생 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 호반정 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 풍년가 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 황토골 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 필동면옥 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 국수가 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 필동칼국수 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 소담집 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 필동 칼국수 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 파스타 마켓 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 가든쿡 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 치아바타몽스 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 보나베띠 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 도문왕양꼬치 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 동회루 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 사해루 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 짬뽕야 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 동국반점 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 라화방마라탕 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 필동반점 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 강서 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 아리산 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 동대 닭한마리 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 닭한마리 배터지는집 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 봉추찜닭 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 내찜닭 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 유가네 닭갈비 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 2.5닭갈비 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 피자나라치킨공주 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 썬더치킨 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 필동 닭칼국수 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 내가찜한닭 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 손문 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 돼야지 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 대청마루 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 코너스테이크 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 이대헌 스시 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. Mr.돈 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 허수아비 돈까스 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 모리짱 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 산쪼메 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 산타돈부리 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 용우동 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 엽기떡볶이 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 진아네 떡볶이 어떠세요?</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 떡볶이파티 어떠세요?</t>
   </si>
 </sst>
 </file>
@@ -782,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B4CC4D-BBB6-C948-A332-3C0CB96286D0}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
@@ -818,7 +1354,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -827,7 +1363,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -836,7 +1372,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -845,34 +1381,34 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -881,7 +1417,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -890,7 +1426,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -899,7 +1435,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E11" s="4"/>
     </row>
@@ -908,7 +1444,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="E12" s="4"/>
     </row>
@@ -917,7 +1453,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="E13" s="4"/>
     </row>
@@ -926,7 +1462,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="E14" s="4"/>
     </row>
@@ -935,7 +1471,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E15" s="4"/>
     </row>
@@ -944,7 +1480,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E16" s="4"/>
     </row>
@@ -953,7 +1489,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E17" s="4"/>
     </row>
@@ -962,7 +1498,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E18" s="4"/>
     </row>
@@ -971,7 +1507,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E19" s="4"/>
     </row>
@@ -980,7 +1516,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="E20" s="4"/>
     </row>
@@ -989,7 +1525,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E21" s="4"/>
     </row>
@@ -998,7 +1534,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E22" s="4"/>
     </row>
@@ -1007,7 +1543,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E23" s="4"/>
     </row>
@@ -1016,7 +1552,7 @@
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E24" s="4"/>
     </row>
@@ -1025,7 +1561,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E25" s="4"/>
     </row>
@@ -1034,7 +1570,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E26" s="4"/>
     </row>
@@ -1043,7 +1579,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E27" s="4"/>
     </row>
@@ -1052,7 +1588,7 @@
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E28" s="4"/>
     </row>
@@ -1061,7 +1597,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E29" s="4"/>
     </row>
@@ -1070,7 +1606,7 @@
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E30" s="4"/>
     </row>
@@ -1079,7 +1615,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E31" s="4"/>
     </row>
@@ -1088,7 +1624,7 @@
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E32" s="4"/>
     </row>
@@ -1097,7 +1633,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E33" s="4"/>
     </row>
@@ -1106,7 +1642,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E34" s="4"/>
     </row>
@@ -1115,7 +1651,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E35" s="4"/>
     </row>
@@ -1124,7 +1660,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E36" s="4"/>
     </row>
@@ -1133,7 +1669,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E37" s="4"/>
     </row>
@@ -1142,7 +1678,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E38" s="4"/>
     </row>
@@ -1151,7 +1687,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E39" s="4"/>
     </row>
@@ -1160,7 +1696,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E40" s="4"/>
     </row>
@@ -1169,7 +1705,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E41" s="4"/>
     </row>
@@ -1178,7 +1714,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E42" s="4"/>
     </row>
@@ -1187,7 +1723,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E43" s="4"/>
     </row>
@@ -1196,7 +1732,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E44" s="4"/>
     </row>
@@ -1205,7 +1741,7 @@
         <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E45" s="4"/>
     </row>
@@ -1214,7 +1750,7 @@
         <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1222,7 +1758,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1230,7 +1766,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
@@ -1238,7 +1774,7 @@
         <v>7</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1246,7 +1782,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1254,7 +1790,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1262,7 +1798,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1270,7 +1806,7 @@
         <v>8</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
@@ -1278,7 +1814,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1286,7 +1822,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1294,7 +1830,7 @@
         <v>8</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1302,7 +1838,7 @@
         <v>8</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1310,7 +1846,7 @@
         <v>8</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
@@ -1318,7 +1854,7 @@
         <v>8</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
@@ -1326,7 +1862,7 @@
         <v>8</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1334,7 +1870,7 @@
         <v>8</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1342,7 +1878,10 @@
         <v>8</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>84</v>
+        <v>56</v>
+      </c>
+      <c r="E62" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1361,13 +1900,13 @@
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1378,10 +1917,13 @@
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>22</v>
+        <v>205</v>
+      </c>
+      <c r="E65" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1392,13 +1934,16 @@
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+      <c r="E66" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -1406,16 +1951,16 @@
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -1423,13 +1968,13 @@
         <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>18</v>
+        <v>58</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="E68" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1440,21 +1985,2613 @@
         <v>11</v>
       </c>
       <c r="C69" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E70" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E72" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>58</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E73" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>58</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E75" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E76" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>58</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E77" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>61</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E78" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" t="s">
+        <v>62</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E79" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E80" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>81</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E81" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>82</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>82</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E84" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>83</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E85" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E86" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E87" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E88" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>85</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E89" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>86</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E90" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>87</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E91" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>88</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E92" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>89</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E93" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>89</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E94" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>90</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E95" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>91</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E96" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E97" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" t="s">
+        <v>92</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E98" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" t="s">
+        <v>93</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E99" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>94</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E100" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>95</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E101" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>96</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E102" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>96</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E103" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" t="s">
+        <v>97</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E104" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" t="s">
+        <v>98</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E105" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>99</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E106" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>100</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E107" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>101</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E108" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>101</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E109" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" t="s">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="110" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>101</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E110" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>101</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E111" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>102</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>102</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" t="s">
+        <v>103</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E114" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" t="s">
+        <v>103</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E117" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>104</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E118" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>105</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>106</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E120" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" t="s">
+        <v>108</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E121" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" t="s">
+        <v>107</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E122" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
+        <v>107</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E123" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>107</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E124" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>107</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E125" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>107</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E126" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>107</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>107</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E128" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>107</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E129" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>109</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>110</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" t="s">
+        <v>110</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E132" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" t="s">
+        <v>110</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E133" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" t="s">
+        <v>110</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E134" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>110</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E135" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>110</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E136" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>112</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E137" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>111</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E138" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>111</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E139" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>111</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E140" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>111</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E141" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>111</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E142" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>111</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E143" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>113</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E144" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
+        <v>113</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" t="s">
+        <v>113</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E146" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>113</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E147" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>113</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E148" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" t="s">
+        <v>113</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E149" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>114</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E150" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>114</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E151" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>114</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E152" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>6</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>114</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E153" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>116</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E154" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>115</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E155" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>117</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E156" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>118</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E157" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" t="s">
+        <v>118</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E158" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" t="s">
+        <v>118</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E159" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>118</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E160" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>118</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E161" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" t="s">
+        <v>118</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E162" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" t="s">
+        <v>118</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E163" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" t="s">
+        <v>118</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E164" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>118</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E165" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>6</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>119</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E166" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>6</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" t="s">
+        <v>119</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" t="s">
+        <v>119</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E168" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>6</v>
+      </c>
+      <c r="B169" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" t="s">
+        <v>120</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E169" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" t="s">
+        <v>120</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E170" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>121</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E171" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>121</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" t="s">
+        <v>122</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E173" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" t="s">
+        <v>122</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E174" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" t="s">
+        <v>123</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E175" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E176" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" t="s">
+        <v>123</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E177" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" t="s">
+        <v>123</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E178" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
+        <v>6</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>124</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E179" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" t="s">
+        <v>124</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E180" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>6</v>
+      </c>
+      <c r="B181" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" t="s">
+        <v>124</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E181" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
+        <v>6</v>
+      </c>
+      <c r="B182" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" t="s">
+        <v>125</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E182" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>126</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E183" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
+        <v>6</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>127</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E184" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A185" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" t="s">
+        <v>127</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E185" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" t="s">
+        <v>128</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E186" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" t="s">
+        <v>130</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E187" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" t="s">
+        <v>129</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E188" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A189" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>129</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E189" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>129</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E190" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A191" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>129</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A192" t="s">
+        <v>6</v>
+      </c>
+      <c r="B192" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192" t="s">
+        <v>129</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E192" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A193" t="s">
+        <v>6</v>
+      </c>
+      <c r="B193" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" t="s">
+        <v>131</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A194" t="s">
+        <v>6</v>
+      </c>
+      <c r="B194" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194" t="s">
+        <v>132</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E194" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A195" t="s">
+        <v>6</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>132</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E195" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A196" t="s">
+        <v>6</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>133</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E196" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
+        <v>6</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>134</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E197" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
+        <v>6</v>
+      </c>
+      <c r="B198" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198" t="s">
+        <v>134</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
+        <v>6</v>
+      </c>
+      <c r="B199" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199" t="s">
+        <v>135</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E199" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
+        <v>6</v>
+      </c>
+      <c r="B200" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" t="s">
+        <v>135</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E200" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
+        <v>6</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" t="s">
+        <v>136</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E201" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A202" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>137</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E202" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A203" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" t="s">
+        <v>138</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E203" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>6</v>
+      </c>
+      <c r="B204" t="s">
+        <v>11</v>
+      </c>
+      <c r="C204" t="s">
+        <v>138</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E204" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A205" t="s">
+        <v>6</v>
+      </c>
+      <c r="B205" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205" t="s">
+        <v>138</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E205" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A206" t="s">
+        <v>6</v>
+      </c>
+      <c r="B206" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206" t="s">
+        <v>138</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E206" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A207" t="s">
+        <v>6</v>
+      </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" t="s">
+        <v>139</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E207" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A208" t="s">
+        <v>6</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208" t="s">
+        <v>140</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E208" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A209" t="s">
+        <v>6</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>140</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A210" t="s">
+        <v>6</v>
+      </c>
+      <c r="B210" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" t="s">
+        <v>140</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E210" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D211" s="2"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D212" s="2"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D213" s="2"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D214" s="2"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D215" s="2"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D216" s="2"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D217" s="2"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D218" s="2"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D219" s="2"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D220" s="2"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D221" s="2"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D222" s="2"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D223" s="2"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D224" s="2"/>
+    </row>
+    <row r="225" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D225" s="2"/>
+    </row>
+    <row r="226" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D226" s="2"/>
+    </row>
+    <row r="227" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D227" s="2"/>
+    </row>
+    <row r="228" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D228" s="2"/>
+    </row>
+    <row r="229" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D229" s="2"/>
+    </row>
+    <row r="230" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D230" s="2"/>
+    </row>
+    <row r="231" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D231" s="2"/>
+    </row>
+    <row r="232" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D232" s="2"/>
+    </row>
+    <row r="233" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D233" s="2"/>
+    </row>
+    <row r="234" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D234" s="2"/>
+    </row>
+    <row r="235" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D235" s="2"/>
+    </row>
+    <row r="236" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D236" s="2"/>
+    </row>
+    <row r="237" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D237" s="2"/>
+    </row>
+    <row r="238" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D238" s="2"/>
+    </row>
+    <row r="239" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D239" s="2"/>
+    </row>
+    <row r="240" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D240" s="2"/>
+    </row>
+    <row r="241" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D241" s="2"/>
+    </row>
+    <row r="242" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D242" s="2"/>
+    </row>
+    <row r="243" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D243" s="2"/>
+    </row>
+    <row r="244" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D244" s="2"/>
+    </row>
+    <row r="245" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D245" s="2"/>
+    </row>
+    <row r="246" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D246" s="2"/>
+    </row>
+    <row r="247" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D247" s="2"/>
+    </row>
+    <row r="248" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D248" s="2"/>
+    </row>
+    <row r="249" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D249" s="2"/>
+    </row>
+    <row r="250" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D250" s="2"/>
+    </row>
+    <row r="251" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D251" s="2"/>
+    </row>
+    <row r="252" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D252" s="2"/>
+    </row>
+    <row r="253" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D253" s="2"/>
+    </row>
+    <row r="254" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D254" s="2"/>
+    </row>
+    <row r="255" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D255" s="2"/>
+    </row>
+    <row r="256" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D256" s="2"/>
+    </row>
+    <row r="257" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D257" s="2"/>
+    </row>
+    <row r="258" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D258" s="2"/>
+    </row>
+    <row r="259" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D259" s="2"/>
+    </row>
+    <row r="260" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D260" s="2"/>
+    </row>
+    <row r="261" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D261" s="2"/>
+    </row>
+    <row r="262" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D262" s="2"/>
+    </row>
+    <row r="263" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D263" s="2"/>
+    </row>
+    <row r="264" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D264" s="2"/>
+    </row>
+    <row r="265" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D265" s="2"/>
+    </row>
+    <row r="266" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D266" s="2"/>
+    </row>
+    <row r="267" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D267" s="2"/>
+    </row>
+    <row r="268" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D268" s="2"/>
+    </row>
+    <row r="269" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D269" s="2"/>
+    </row>
+    <row r="270" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D270" s="2"/>
+    </row>
+    <row r="271" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D271" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E64" r:id="rId1" xr:uid="{97ECB475-FF18-4E1C-9AFA-DFC6B5E16520}"/>
+    <hyperlink ref="E64" r:id="rId1" xr:uid="{EE1FDD6D-EAC2-4F36-83C1-93D11D311C5D}"/>
+    <hyperlink ref="E71" r:id="rId2" xr:uid="{CAC6BBF4-04C8-4907-A7EF-7200B2A32E2B}"/>
+    <hyperlink ref="E67" r:id="rId3" xr:uid="{2A8B3A30-69B0-4939-9DFE-A871F9EAC073}"/>
+    <hyperlink ref="E69" r:id="rId4" xr:uid="{B8A3EF4D-AFCA-449E-8AFD-8CA89B2AC565}"/>
+    <hyperlink ref="E112" r:id="rId5" xr:uid="{87954297-6CC3-44F1-85EC-5F88754F1C3B}"/>
+    <hyperlink ref="E131" r:id="rId6" xr:uid="{DDB7EBF1-B4F4-444D-9911-01CCF0292A0E}"/>
+    <hyperlink ref="E130" r:id="rId7" xr:uid="{B6D49762-A052-4369-BECD-600E4898639B}"/>
+    <hyperlink ref="E145" r:id="rId8" xr:uid="{A80BB49D-59AA-41FD-B7B0-B3436D08228C}"/>
+    <hyperlink ref="E167" r:id="rId9" xr:uid="{E754190D-EA48-4337-8928-67CA5B8F8DCF}"/>
+    <hyperlink ref="E172" r:id="rId10" xr:uid="{36D26A98-C7F1-463B-AC0E-D80351874B1B}"/>
+    <hyperlink ref="E193" r:id="rId11" xr:uid="{73B01EA0-A329-4D91-B3D4-8899366AA938}"/>
+    <hyperlink ref="E191" r:id="rId12" xr:uid="{5F5766E8-1840-45A1-A727-289755259F2F}"/>
+    <hyperlink ref="E209" r:id="rId13" xr:uid="{8109BFBF-3E5B-4157-A315-12F3C1243CA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/train_tools/qna/train_data.xlsx
+++ b/train_tools/qna/train_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eogus\Chatbot_Project\train_tools\qna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A86DB2-BCAB-4D39-9B6B-1228A561253B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47FD64A-640B-4FD3-90DB-283D911E9B34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{91B3E3B2-3B68-0C4C-B8EF-7A84BAE2F665}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="258">
   <si>
     <t>개체명(NER)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,14 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오늘따라 제육볶음을 추천해드리고 싶네요 ㅎㅎ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘따라 오리주물럭이 땡기는데요? ㅎㅎ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>한국인이면 된장찌개죠!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>저는 오늘따라 칼국수가 땡깁니다…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수제비국으로 든든하게 배 채웁시다!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,10 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오늘따라 스테이크를 썰고 싶군요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>철판과 공기에 밥을 볶으면 그렇게 맛있대요! 철판볶음밥 추천드려요! ㅎㅎ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오늘따라 볶음밥이 땡기네요… 짬뽕국물 추가는 필수!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>요즘 마라탕이 그렇게 대세라면서요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,10 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오늘은 무난~하게 돈까스 갑시다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>뜨~끈한 고기육수에 면을 넣어먹는 일식대표 라멘 어떠세요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,9 +298,6 @@
     <t>양꼬치 어떠세요? 양고기의 특유의 향에 빠져버려요…</t>
   </si>
   <si>
-    <t>오늘은 특별하게 탕수육말고 깐풍기 어떠세요?</t>
-  </si>
-  <si>
     <t>찜닭에 밥한공기 뚝딱어떠세요? ㅎㅎ</t>
   </si>
   <si>
@@ -503,10 +476,6 @@
     <t>막창</t>
   </si>
   <si>
-    <t>삽겹살</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>함박스테이크</t>
   </si>
   <si>
@@ -906,6 +875,46 @@
   </si>
   <si>
     <t>{B_FOOD} 맛집을 검색합니다. 떡볶이파티 어떠세요?</t>
+  </si>
+  <si>
+    <t>제육볶음을 추천해드리고 싶네요 ㅎㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리주물럭이 땡기는데요? ㅎㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 칼국수가 땡깁니다…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이크를 썰고 싶군요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별하게 탕수육말고 깐풍기 어떠세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볶음밥이 땡기네요… 짬뽕국물 추가는 필수!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무난~하게 돈까스 갑시다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼겹살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1320,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B4CC4D-BBB6-C948-A332-3C0CB96286D0}">
   <dimension ref="A1:E271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="D150" sqref="D150"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="C185" sqref="C185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
@@ -1356,7 +1365,9 @@
       <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -1365,7 +1376,9 @@
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -1374,7 +1387,9 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -1383,7 +1398,9 @@
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -1392,7 +1409,9 @@
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -1401,7 +1420,9 @@
       <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -1410,347 +1431,426 @@
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="4"/>
+        <v>248</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="4"/>
+        <v>249</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="4"/>
+        <v>250</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="4"/>
+        <v>251</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="4"/>
+        <v>252</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="4"/>
+        <v>253</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E45" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1758,7 +1858,10 @@
         <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1766,7 +1869,10 @@
         <v>7</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
@@ -1774,7 +1880,10 @@
         <v>7</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1782,7 +1891,10 @@
         <v>8</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1790,7 +1902,10 @@
         <v>8</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1798,7 +1913,10 @@
         <v>8</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1806,7 +1924,10 @@
         <v>8</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
@@ -1814,7 +1935,10 @@
         <v>8</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1822,15 +1946,21 @@
         <v>8</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>53</v>
+        <v>254</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1838,7 +1968,10 @@
         <v>8</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1846,7 +1979,10 @@
         <v>8</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
@@ -1854,7 +1990,10 @@
         <v>8</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
@@ -1862,7 +2001,10 @@
         <v>8</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1870,7 +2012,10 @@
         <v>8</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1878,10 +2023,10 @@
         <v>8</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E62" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1891,6 +2036,9 @@
       <c r="D63" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="E63" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
@@ -1900,13 +2048,13 @@
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1917,13 +2065,13 @@
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E65" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1934,16 +2082,16 @@
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E66" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -1951,16 +2099,16 @@
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -1968,13 +2116,13 @@
         <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E68" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -1985,13 +2133,13 @@
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2002,13 +2150,13 @@
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E70" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2019,13 +2167,13 @@
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2036,13 +2184,13 @@
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E72" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2053,13 +2201,13 @@
         <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E73" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2070,13 +2218,13 @@
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E74" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2087,13 +2235,13 @@
         <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E75" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2104,13 +2252,13 @@
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E76" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2121,13 +2269,13 @@
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E77" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2138,13 +2286,13 @@
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E78" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2155,13 +2303,13 @@
         <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E79" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2172,13 +2320,13 @@
         <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E80" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2189,13 +2337,13 @@
         <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E81" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2206,13 +2354,13 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E82" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2223,13 +2371,13 @@
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E83" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2240,13 +2388,13 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E84" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2257,13 +2405,13 @@
         <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E85" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2274,13 +2422,13 @@
         <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E86" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2291,13 +2439,13 @@
         <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E87" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2308,13 +2456,13 @@
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E88" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2325,13 +2473,13 @@
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E89" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2342,13 +2490,13 @@
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E90" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2359,13 +2507,13 @@
         <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E91" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2376,13 +2524,13 @@
         <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E92" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2393,13 +2541,13 @@
         <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E93" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2410,16 +2558,16 @@
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E94" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -2427,16 +2575,16 @@
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E95" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -2444,13 +2592,13 @@
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2464,10 +2612,10 @@
         <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E97" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2478,13 +2626,13 @@
         <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E98" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2495,13 +2643,13 @@
         <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E99" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2512,13 +2660,13 @@
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E100" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2529,13 +2677,13 @@
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E101" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2546,13 +2694,13 @@
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E102" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2563,13 +2711,13 @@
         <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E103" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2580,13 +2728,13 @@
         <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E104" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2597,13 +2745,13 @@
         <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E105" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2614,13 +2762,13 @@
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E106" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2631,13 +2779,13 @@
         <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E107" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2648,13 +2796,13 @@
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E108" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2665,16 +2813,16 @@
         <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E109" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -2682,13 +2830,13 @@
         <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E110" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2699,13 +2847,13 @@
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E111" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2716,13 +2864,13 @@
         <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2733,10 +2881,10 @@
         <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E113" t="s">
         <v>13</v>
@@ -2750,13 +2898,13 @@
         <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E114" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2767,10 +2915,10 @@
         <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E115" t="s">
         <v>13</v>
@@ -2787,7 +2935,7 @@
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E116" t="s">
         <v>13</v>
@@ -2804,13 +2952,13 @@
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E117" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -2818,13 +2966,13 @@
         <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E118" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2835,13 +2983,13 @@
         <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E119" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2852,16 +3000,16 @@
         <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E120" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -2869,13 +3017,13 @@
         <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E121" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2886,13 +3034,13 @@
         <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E122" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2903,13 +3051,13 @@
         <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E123" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2920,13 +3068,13 @@
         <v>5</v>
       </c>
       <c r="C124" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E124" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2937,16 +3085,16 @@
         <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E125" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -2954,13 +3102,13 @@
         <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E126" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2971,13 +3119,13 @@
         <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -2988,13 +3136,13 @@
         <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E128" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3005,16 +3153,16 @@
         <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E129" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -3022,13 +3170,13 @@
         <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3039,13 +3187,13 @@
         <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3056,13 +3204,13 @@
         <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E132" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3073,13 +3221,13 @@
         <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E133" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3090,13 +3238,13 @@
         <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E134" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3107,13 +3255,13 @@
         <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E135" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3124,13 +3272,13 @@
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E136" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3141,13 +3289,13 @@
         <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E137" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3158,13 +3306,13 @@
         <v>11</v>
       </c>
       <c r="C138" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E138" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3175,13 +3323,13 @@
         <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E139" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3192,13 +3340,13 @@
         <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E140" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3209,13 +3357,13 @@
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E141" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3226,13 +3374,13 @@
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E142" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3243,13 +3391,13 @@
         <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E143" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3260,13 +3408,13 @@
         <v>11</v>
       </c>
       <c r="C144" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E144" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3277,13 +3425,13 @@
         <v>11</v>
       </c>
       <c r="C145" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3294,13 +3442,13 @@
         <v>11</v>
       </c>
       <c r="C146" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E146" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3311,13 +3459,13 @@
         <v>5</v>
       </c>
       <c r="C147" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E147" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3328,13 +3476,13 @@
         <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E148" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3345,13 +3493,13 @@
         <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E149" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3362,13 +3510,13 @@
         <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E150" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3379,13 +3527,13 @@
         <v>11</v>
       </c>
       <c r="C151" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E151" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3396,13 +3544,13 @@
         <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E152" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3413,13 +3561,13 @@
         <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E153" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3430,13 +3578,13 @@
         <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E154" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3447,16 +3595,16 @@
         <v>5</v>
       </c>
       <c r="C155" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E155" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -3464,16 +3612,16 @@
         <v>11</v>
       </c>
       <c r="C156" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E156" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -3481,13 +3629,13 @@
         <v>11</v>
       </c>
       <c r="C157" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E157" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
@@ -3498,13 +3646,13 @@
         <v>11</v>
       </c>
       <c r="C158" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E158" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3515,13 +3663,13 @@
         <v>5</v>
       </c>
       <c r="C159" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E159" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3532,16 +3680,16 @@
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E160" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -3549,13 +3697,13 @@
         <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E161" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3566,13 +3714,13 @@
         <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E162" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
@@ -3583,13 +3731,13 @@
         <v>11</v>
       </c>
       <c r="C163" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E163" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3600,16 +3748,16 @@
         <v>11</v>
       </c>
       <c r="C164" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E164" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>6</v>
       </c>
@@ -3617,16 +3765,16 @@
         <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E165" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -3634,13 +3782,13 @@
         <v>5</v>
       </c>
       <c r="C166" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E166" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
@@ -3651,30 +3799,30 @@
         <v>5</v>
       </c>
       <c r="C167" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E167" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" t="s">
+        <v>112</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E168" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
-      <c r="A168" t="s">
-        <v>6</v>
-      </c>
-      <c r="B168" t="s">
-        <v>11</v>
-      </c>
-      <c r="C168" t="s">
-        <v>119</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E168" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3685,13 +3833,13 @@
         <v>11</v>
       </c>
       <c r="C169" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E169" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3702,16 +3850,16 @@
         <v>11</v>
       </c>
       <c r="C170" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E170" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>6</v>
       </c>
@@ -3719,13 +3867,13 @@
         <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E171" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3736,13 +3884,13 @@
         <v>5</v>
       </c>
       <c r="C172" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
@@ -3753,13 +3901,13 @@
         <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E173" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3770,13 +3918,13 @@
         <v>11</v>
       </c>
       <c r="C174" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E174" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3787,13 +3935,13 @@
         <v>11</v>
       </c>
       <c r="C175" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E175" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3804,13 +3952,13 @@
         <v>11</v>
       </c>
       <c r="C176" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E176" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3821,16 +3969,16 @@
         <v>5</v>
       </c>
       <c r="C177" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E177" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>6</v>
       </c>
@@ -3838,13 +3986,13 @@
         <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E178" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3855,13 +4003,13 @@
         <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E179" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3872,13 +4020,13 @@
         <v>11</v>
       </c>
       <c r="C180" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E180" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3889,13 +4037,13 @@
         <v>11</v>
       </c>
       <c r="C181" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E181" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3906,13 +4054,13 @@
         <v>11</v>
       </c>
       <c r="C182" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E182" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3923,13 +4071,13 @@
         <v>5</v>
       </c>
       <c r="C183" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E183" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3940,13 +4088,13 @@
         <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E184" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3957,16 +4105,16 @@
         <v>5</v>
       </c>
       <c r="C185" t="s">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E185" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>6</v>
       </c>
@@ -3974,13 +4122,13 @@
         <v>11</v>
       </c>
       <c r="C186" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E186" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -3991,13 +4139,13 @@
         <v>11</v>
       </c>
       <c r="C187" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E187" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -4008,13 +4156,13 @@
         <v>11</v>
       </c>
       <c r="C188" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E188" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
@@ -4025,13 +4173,13 @@
         <v>5</v>
       </c>
       <c r="C189" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E189" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -4042,13 +4190,13 @@
         <v>5</v>
       </c>
       <c r="C190" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E190" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -4059,13 +4207,13 @@
         <v>5</v>
       </c>
       <c r="C191" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -4076,13 +4224,13 @@
         <v>11</v>
       </c>
       <c r="C192" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E192" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -4093,13 +4241,13 @@
         <v>11</v>
       </c>
       <c r="C193" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -4110,13 +4258,13 @@
         <v>11</v>
       </c>
       <c r="C194" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E194" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
@@ -4127,13 +4275,13 @@
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E195" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -4144,13 +4292,13 @@
         <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E196" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -4161,13 +4309,13 @@
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E197" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -4178,13 +4326,13 @@
         <v>11</v>
       </c>
       <c r="C198" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E198" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -4195,13 +4343,13 @@
         <v>11</v>
       </c>
       <c r="C199" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E199" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -4212,13 +4360,13 @@
         <v>11</v>
       </c>
       <c r="C200" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E200" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -4229,13 +4377,13 @@
         <v>5</v>
       </c>
       <c r="C201" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E201" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -4246,13 +4394,13 @@
         <v>5</v>
       </c>
       <c r="C202" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E202" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -4263,13 +4411,13 @@
         <v>5</v>
       </c>
       <c r="C203" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E203" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -4280,16 +4428,16 @@
         <v>11</v>
       </c>
       <c r="C204" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E204" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -4297,13 +4445,13 @@
         <v>11</v>
       </c>
       <c r="C205" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E205" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -4314,13 +4462,13 @@
         <v>11</v>
       </c>
       <c r="C206" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E206" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -4331,13 +4479,13 @@
         <v>5</v>
       </c>
       <c r="C207" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E207" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -4348,16 +4496,16 @@
         <v>5</v>
       </c>
       <c r="C208" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E208" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>6</v>
       </c>
@@ -4365,13 +4513,13 @@
         <v>5</v>
       </c>
       <c r="C209" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -4382,17 +4530,25 @@
         <v>11</v>
       </c>
       <c r="C210" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D210" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E210" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+      <c r="A211" t="s">
         <v>255</v>
       </c>
-      <c r="E210" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D211" s="2"/>
+      <c r="D211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E211" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D212" s="2"/>
